--- a/downloaded_files/MDPS355_Tutorial-35681.xlsx
+++ b/downloaded_files/MDPS355_Tutorial-35681.xlsx
@@ -75,6 +75,15 @@
     <x:t>Seif Alaa Eldin Samir Ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>1230051</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن احمد مصطفى كامل البنا</x:t>
+  </x:si>
+  <x:si>
+    <x:t>abdelrahman ahmed mostafa</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230060</x:t>
   </x:si>
   <x:si>
@@ -154,15 +163,6 @@
   </x:si>
   <x:si>
     <x:t>Omar Mostafa Ibrahim Elrayes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230222</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر وليد محمود عبد الرؤف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Walid Mahmoud Abdelraouf</x:t>
   </x:si>
   <x:si>
     <x:t>1210371</x:t>
@@ -971,7 +971,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4141627662</x:v>
+        <x:v>45907.4381296296</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1003,7 +1003,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4178491551</x:v>
+        <x:v>45907.4141627662</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1035,7 +1035,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45917.6297919329</x:v>
+        <x:v>45907.4178491551</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1067,7 +1067,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4144332523</x:v>
+        <x:v>45917.6297919329</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1099,7 +1099,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4146219907</x:v>
+        <x:v>45907.4144332523</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1131,7 +1131,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4152890856</x:v>
+        <x:v>45907.4146219907</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1163,7 +1163,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4151501157</x:v>
+        <x:v>45907.4152890856</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1195,7 +1195,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4180099537</x:v>
+        <x:v>45907.4151501157</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1227,7 +1227,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45915.958293206</x:v>
+        <x:v>45907.4180099537</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1259,7 +1259,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4145161227</x:v>
+        <x:v>45915.958293206</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>

--- a/downloaded_files/MDPS355_Tutorial-35681.xlsx
+++ b/downloaded_files/MDPS355_Tutorial-35681.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -289,6 +289,15 @@
   </x:si>
   <x:si>
     <x:t>Malak Mohsen Hussein Ismail Kazem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220318</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور احمد شمس الدين محمد سالم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nour Ahmed Shamseldin Mohamed Salem</x:t>
   </x:si>
   <x:si>
     <x:t>1210358</x:t>
@@ -422,7 +431,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -722,7 +731,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1739,7 +1748,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4196388889</x:v>
+        <x:v>45926.4404334491</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1771,7 +1780,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4150058681</x:v>
+        <x:v>45907.4196388889</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1788,6 +1797,38 @@
       <x:c r="R32" s="2" t="s"/>
       <x:c r="S32" s="2" t="s"/>
       <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45907.4150058681</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS355_Tutorial-35681.xlsx
+++ b/downloaded_files/MDPS355_Tutorial-35681.xlsx
@@ -1428,7 +1428,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4189993056</x:v>
+        <x:v>45927.4336868403</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1492,7 +1492,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4192552083</x:v>
+        <x:v>45927.4255918171</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>

--- a/downloaded_files/MDPS355_Tutorial-35681.xlsx
+++ b/downloaded_files/MDPS355_Tutorial-35681.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -235,6 +235,15 @@
   </x:si>
   <x:si>
     <x:t>MOHAMED</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220314</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد وليد محمد جاد الكريم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mohamed waleed</x:t>
   </x:si>
   <x:si>
     <x:t>1230111</x:t>
@@ -431,7 +440,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -731,7 +740,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1556,7 +1565,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4151855671</x:v>
+        <x:v>45931.3163642014</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1588,7 +1597,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4150774653</x:v>
+        <x:v>45907.4151855671</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1620,7 +1629,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6649521643</x:v>
+        <x:v>45907.4150774653</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1652,7 +1661,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.9104784722</x:v>
+        <x:v>45907.6649521643</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1684,7 +1693,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.416062037</x:v>
+        <x:v>45909.9104784722</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1716,7 +1725,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4169111921</x:v>
+        <x:v>45907.416062037</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1748,7 +1757,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45926.4404334491</x:v>
+        <x:v>45907.4169111921</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1780,7 +1789,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4196388889</x:v>
+        <x:v>45926.4404334491</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1812,7 +1821,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4150058681</x:v>
+        <x:v>45907.4196388889</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1829,6 +1838,38 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45907.4150058681</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS355_Tutorial-35681.xlsx
+++ b/downloaded_files/MDPS355_Tutorial-35681.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -280,15 +280,6 @@
   </x:si>
   <x:si>
     <x:t>Marwan Karim Mohamed Ahmed Zayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230304</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مروان محمود عبدالعليم ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARAWAN</x:t>
   </x:si>
   <x:si>
     <x:t>1220146</x:t>
@@ -440,7 +431,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -740,7 +731,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1725,7 +1716,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.416062037</x:v>
+        <x:v>45907.4169111921</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1757,7 +1748,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4169111921</x:v>
+        <x:v>45926.4404334491</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1789,7 +1780,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45926.4404334491</x:v>
+        <x:v>45907.4196388889</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1821,7 +1812,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4196388889</x:v>
+        <x:v>45907.4150058681</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1838,38 +1829,6 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45907.4150058681</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
